--- a/SPRINT2/TI-Aula5-Backlog-AVICULTURA-GRUPO10.xlsx
+++ b/SPRINT2/TI-Aula5-Backlog-AVICULTURA-GRUPO10.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\Bandtec\TECCHICKEN-SPRINT2\SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F5DF08C-25CF-4FE1-BCCB-DE74ADB4DCA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697C531F-452E-4B3E-BB3F-F269986A5EEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{25395986-EBD6-45E1-B5FA-D5805360109E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Requisitos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -124,13 +125,70 @@
   </si>
   <si>
     <t>01211055</t>
+  </si>
+  <si>
+    <t>Prototipação do Site</t>
+  </si>
+  <si>
+    <t>Requisito</t>
+  </si>
+  <si>
+    <t>Ordem/Execução</t>
+  </si>
+  <si>
+    <t>Backlog 2° Sprint</t>
+  </si>
+  <si>
+    <t>HLD  do projeto</t>
+  </si>
+  <si>
+    <t>LLD do projeto</t>
+  </si>
+  <si>
+    <t>Ferramenta de gestão de projeto</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Diagrama de solução</t>
+  </si>
+  <si>
+    <t>Documento de justificativa do projeto</t>
+  </si>
+  <si>
+    <t>2° Sprint</t>
+  </si>
+  <si>
+    <t>Script BD</t>
+  </si>
+  <si>
+    <t>Simulador Financeiro</t>
+  </si>
+  <si>
+    <t>Criação do repositorio no GitHub</t>
+  </si>
+  <si>
+    <t>Projeto atualizado no Github</t>
+  </si>
+  <si>
+    <t>Modelagem lógica do Banco de Dados</t>
+  </si>
+  <si>
+    <t>Site Estático Institucional - Local em HTML/CSS/Javascript</t>
+  </si>
+  <si>
+    <t>Site Estático Dashboard (Gráfico com ChartJS) - Local</t>
+  </si>
+  <si>
+    <t>Site Estático Cadastro e Login - Local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +196,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,8 +224,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -184,37 +262,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -229,85 +276,77 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -624,267 +663,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DFE211-9289-4CE5-BEDB-9EB311B8F419}">
-  <dimension ref="B2:J13"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="9" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="C4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="C6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8">
         <v>18</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="14">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="E12" s="14">
+        <v>3</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="14">
+        <v>5</v>
+      </c>
+      <c r="E13" s="14">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="14">
+        <v>13</v>
+      </c>
+      <c r="E14" s="14">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="14">
+        <v>4</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="14">
+        <v>3</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="14">
+        <v>5</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
+        <v>6</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
+        <v>7</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="8">
+        <v>15</v>
+      </c>
+      <c r="E18" s="8">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
+        <v>8</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="8">
         <v>21</v>
       </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>18</v>
-      </c>
-      <c r="F5" s="9">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E19" s="8">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
+        <v>9</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="8">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>21</v>
-      </c>
-      <c r="F6" s="13">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7" s="13">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-      <c r="F8" s="13">
-        <v>6</v>
-      </c>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+      <c r="E20" s="8">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>21</v>
-      </c>
-      <c r="F9" s="13">
-        <v>7</v>
-      </c>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2">
-        <v>8</v>
-      </c>
-      <c r="F10" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2">
-        <v>13</v>
-      </c>
-      <c r="F11" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="10">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="15"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="13"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:I7">
-    <sortCondition ref="H7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:H7">
+    <sortCondition ref="G7"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B10:E10"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="I3:I7" numberStoredAsText="1"/>
-  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1739E6-F50A-4DFF-AA31-A876B2C2E512}">
+  <dimension ref="B2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
+        <v>16</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8">
+        <v>13</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>